--- a/docs/PT3/PT3_16.08.2024_output.xlsx
+++ b/docs/PT3/PT3_16.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L133"/>
+  <dimension ref="A1:N133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731609301.4786205</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731609301.6459591</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731609301.4786205.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731609301.6459591.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>277.08</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>277.37</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.2900000000000205</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731609304.161288</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731609304.5794728</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731609304.161288.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731609304.5794728.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>277.61</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>277.49</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.1200000000000045</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731609304.8670003</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731609305.4819977</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731609304.8670003.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731609305.4819977.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>277.76</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>277.78</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.01999999999998181</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731609305.4969578</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731609306.4156659</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731609305.4969578.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731609306.4156659.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>277.78</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>277.5</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.2799999999999727</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731609306.4306262</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731609307.6767242</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731609306.4306262.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731609307.6767242.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>277.5</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>277.5</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731609308.672474</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731609309.073401</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731609308.672474.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731609309.073401.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>277.73</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>278</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.2699999999999818</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731609310.459626</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731609311.7164705</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731609310.459626.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731609311.7164705.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>278.14</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>277.76</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-0.3799999999999955</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731609316.240786</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731609317.3383796</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731609316.240786.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731609317.3383796.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>278.05</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>278.21</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.1599999999999682</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731609319.312165</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731609319.4378057</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731609319.312165.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731609319.4378057.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>277.08</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>277.37</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.2900000000000205</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731609321.6456993</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731609322.0488276</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731609321.6456993.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731609322.0488276.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>277.61</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>277.49</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-0.1200000000000045</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731609322.4219575</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731609323.0277264</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731609322.4219575.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731609323.0277264.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>277.76</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>277.78</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-0.01999999999998181</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731609323.043684</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731609323.8964965</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731609323.043684.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731609323.8964965.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>277.78</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>277.5</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.2799999999999727</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -1163,51 +1251,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731609323.9114528</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731609325.178585</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731609323.9114528.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731609325.178585.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>277.5</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>277.5</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1215,51 +1309,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731609326.0841932</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731609326.446225</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731609326.0841932.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731609326.446225.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>277.73</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>278</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.2699999999999818</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1267,51 +1367,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731609327.6769845</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731609328.7461517</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731609327.6769845.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731609328.7461517.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>278.14</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>277.76</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-0.3799999999999955</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -1319,51 +1425,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731609332.6947937</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731609333.6003442</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/SBER1731609332.6947937.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/SBER1731609333.6003442.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>278.05</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>278.21</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.1599999999999682</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1371,51 +1483,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731609338.4085777</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731609339.1266766</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/SBER1731609338.4085777.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/SBER1731609339.1266766.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>277.93</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>278.24</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.3100000000000023</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -1423,51 +1541,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731609339.8413477</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731609340.4757898</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/SBER1731609339.8413477.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/SBER1731609340.4757898.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>278.25</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>277.78</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-0.4700000000000273</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -1475,51 +1599,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731609344.0997522</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731609344.4856637</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/SBER1731609344.0997522.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/SBER1731609344.4856637.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>278.41</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>278.82</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.4099999999999682</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -1527,51 +1657,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731609344.8326292</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731609345.2168179</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/SBER1731609344.8326292.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/SBER1731609345.2168179.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>278.68</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>278.66</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-0.01999999999998181</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -1579,51 +1715,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731609346.6345742</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731609348.2028337</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/SBER1731609346.6345742.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/SBER1731609348.2028337.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>278.13</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>278.06</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.06999999999999318</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1631,51 +1773,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731609351.157667</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731609351.836274</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/SBER1731609351.157667.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/SBER1731609351.836274.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>278.4</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>278.62</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.2200000000000273</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1683,51 +1831,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731609351.906039</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731609352.3606749</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/SBER1731609351.906039.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/SBER1731609352.3606749.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>278.53</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>278.53</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1735,95 +1889,107 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731609352.8471496</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731609352.8471496.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731609352.8471496.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>278.67</v>
       </c>
-      <c r="J26" t="n">
-        <v>278.67</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>278.65</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-0.02000000000003865</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731609355.6139798</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731609356.096393</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731609355.6139798.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731609356.096393.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>127.41</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>127.29</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.1199999999999903</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1831,51 +1997,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731609356.1598291</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731609357.6557791</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731609356.1598291.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731609357.6557791.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>127.4</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>127.43</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.03000000000000114</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -1883,51 +2055,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731609358.8106208</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731609359.5914643</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731609358.8106208.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731609359.5914643.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>127.45</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>126.9</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.5499999999999972</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>-0.43</v>
       </c>
     </row>
@@ -1935,51 +2113,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731609360.0437093</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731609360.7720122</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731609360.0437093.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731609360.7720122.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>127.1</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>127.11</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-0.01000000000000512</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -1987,51 +2171,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731609361.939002</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731609362.0084786</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731609361.939002.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731609362.0084786.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>126.91</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>127.03</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.1200000000000045</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -2039,51 +2229,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731609364.1362028</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731609366.1362424</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731609364.1362028.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731609366.1362424.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>127.27</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>127.22</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.04999999999999716</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -2091,51 +2287,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731609370.793504</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731609371.4865205</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731609370.793504.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731609371.4865205.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>127.88</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>128.08</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.2000000000000171</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -2143,51 +2345,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731609372.8135371</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731609373.4134502</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731609372.8135371.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731609373.4134502.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>6334.5</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>6331.5</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-3</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -2195,51 +2403,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731609374.528046</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731609374.7190318</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731609374.528046.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731609374.7190318.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>6318.5</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>6318.5</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2247,51 +2461,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731609383.896809</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731609384.186166</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731609383.896809.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731609384.186166.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>6305.5</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>6304.5</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -2299,51 +2519,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731609387.7706084</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731609388.4268582</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731609387.7706084.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731609388.4268582.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>6314</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>6322.5</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>8.5</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -2351,51 +2577,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731609388.7227495</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731609390.231083</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731609388.7227495.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731609390.231083.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>6319</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>6312.5</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-6.5</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -2403,51 +2635,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731609390.8778386</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731609392.6667187</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731609390.8778386.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731609392.6667187.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>494.9</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>494.9</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2455,51 +2693,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731609393.871348</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731609395.3507361</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731609393.871348.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731609395.3507361.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>494.65</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>493.6</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-1.049999999999955</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -2507,51 +2751,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731609397.6477642</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731609397.8025482</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731609397.6477642.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731609397.8025482.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>493.8</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>493</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.8000000000000114</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -2559,51 +2809,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731609399.1861002</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731609399.620591</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731609399.1861002.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731609399.620591.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>493.6</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>494.3</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.6999999999999886</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -2611,51 +2867,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731609400.4324358</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731609401.335828</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731609400.4324358.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731609401.335828.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>494.35</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>493.05</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-1.300000000000011</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -2663,51 +2925,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731609402.7210302</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731609403.3293839</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731609402.7210302.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731609403.3293839.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>492.65</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>492.05</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.5999999999999659</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -2715,51 +2983,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731609403.4997244</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731609404.3435998</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731609403.4997244.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731609404.3435998.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>492.25</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>493.6</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-1.350000000000023</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -2767,51 +3041,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731609404.8267207</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731609405.2555943</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731609404.8267207.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731609405.2555943.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>493.1</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>493</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.1000000000000227</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -2819,51 +3099,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731609406.3463528</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731609406.5864072</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731609406.3463528.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731609406.5864072.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>493.75</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>494.25</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.5</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -2871,51 +3157,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731609406.7987788</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731609408.4608154</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731609406.7987788.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731609408.4608154.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>494</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>494.3</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.3000000000000114</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -2923,51 +3215,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731609409.0849986</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731609409.4144819</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731609409.0849986.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731609409.4144819.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>222.99</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>223.07</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-0.07999999999998408</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -2975,51 +3273,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731609411.890058</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731609412.3329258</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731609411.890058.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731609412.3329258.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>223.82</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>223.88</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -3027,51 +3331,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731609412.8599122</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731609413.3618934</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731609412.8599122.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731609413.3618934.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>223.9</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>223.78</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -3079,51 +3389,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731609417.2593043</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731609417.460817</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731609417.2593043.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731609417.460817.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>223.52</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>223.28</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.2400000000000091</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -3131,51 +3447,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731609417.5256019</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731609417.5885131</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731609417.5256019.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731609417.5885131.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>223.32</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>223.35</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-0.03000000000000114</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -3183,51 +3505,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731609419.2365592</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731609421.6130052</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731609419.2365592.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731609421.6130052.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>224.04</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>223.8</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.2399999999999807</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -3235,51 +3563,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731609422.685668</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731609423.9724102</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731609422.685668.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731609423.9724102.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>223.79</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>223.7</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.09000000000000341</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -3287,51 +3621,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731609430.9093463</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731609432.2006807</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731609430.9093463.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731609432.2006807.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>1026.4</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>1020.4</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-6.000000000000114</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>-0.58</v>
       </c>
     </row>
@@ -3339,51 +3679,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731609433.1329916</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731609433.4045472</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731609433.1329916.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731609433.4045472.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>1019</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>1019.8</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-0.7999999999999545</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -3391,51 +3737,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731609439.7325654</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731609440.0274408</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731609439.7325654.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731609440.0274408.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>1014.6</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>1013.6</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -3443,51 +3795,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731609440.1811004</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731609440.526342</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731609440.1811004.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731609440.526342.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>1013.8</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>1013.8</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3495,51 +3853,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731609443.2262864</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731609443.4729779</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731609443.2262864.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731609443.4729779.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>1016.6</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>1017.4</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.7999999999999545</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -3547,51 +3911,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731609444.990286</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731609445.2831237</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/CNY1731609444.990286.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/CNY1731609445.2831237.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>12.113</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>12.123</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.009999999999999787</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -3599,51 +3969,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731609445.2980838</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731609445.618332</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/CNY1731609445.2980838.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/CNY1731609445.618332.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>12.123</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>12.118</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.004999999999999005</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -3651,51 +4027,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731609445.633755</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731609445.7649846</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/CNY1731609445.633755.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/CNY1731609445.7649846.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>12.118</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>12.114</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-0.003999999999999559</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -3703,51 +4085,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731609447.6106012</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731609447.9369552</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/CNY1731609447.6106012.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/CNY1731609447.9369552.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>12.14</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>12.135</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-0.005000000000000782</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -3755,51 +4143,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731609452.9172468</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731609453.4892812</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/CNY1731609452.9172468.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/CNY1731609453.4892812.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>12.124</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>12.121</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-0.003000000000000114</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -3807,51 +4201,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731609454.9172988</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731609455.2740293</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/CNY1731609454.9172988.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/CNY1731609455.2740293.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>12.111</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>12.113</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>-0.001999999999998892</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -3859,51 +4259,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731609457.152374</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731609457.3053372</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/CNY1731609457.152374.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/CNY1731609457.3053372.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>12.085</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>12.075</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.01000000000000156</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -3911,51 +4317,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731609457.7755296</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731609459.798777</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/CNY1731609457.7755296.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/CNY1731609459.798777.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>12.082</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>12.084</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-0.001999999999998892</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -3963,51 +4375,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731609464.5842848</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731609466.138531</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731609464.5842848.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731609466.138531.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>124.9</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>124.98</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>-0.07999999999999829</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -4015,51 +4433,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731609468.1964648</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731609469.6034431</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731609468.1964648.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731609469.6034431.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>124.9</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>124.62</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.2800000000000011</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -4067,51 +4491,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731609470.2370932</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731609470.7346597</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731609470.2370932.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731609470.7346597.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>124.8</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>124.66</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.1400000000000006</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -4119,51 +4549,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731609472.189728</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731609472.925878</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731609472.189728.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731609472.925878.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>124.72</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>124.92</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.2000000000000028</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -4171,51 +4607,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731609475.1427193</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731609475.8182135</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731609475.1427193.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731609475.8182135.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>125.38</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>125.4</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.02000000000001023</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -4223,51 +4665,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731609476.9090922</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731609477.3913348</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731609476.9090922.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731609477.3913348.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>125.58</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>125.22</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-0.3599999999999994</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -4275,51 +4723,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731609479.1158717</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731609479.8558557</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731609479.1158717.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731609479.8558557.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>126.14</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>126.7</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.5600000000000023</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -4327,51 +4781,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731609481.6395772</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731609482.1240625</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731609481.6395772.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731609482.1240625.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>161.5</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>161.02</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.4799999999999898</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -4379,51 +4839,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731609482.3762336</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731609483.1873097</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731609482.3762336.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731609483.1873097.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>161.36</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>161.96</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>-0.5999999999999943</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>-0.37</v>
       </c>
     </row>
@@ -4431,51 +4897,57 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731609483.755802</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731609484.0670936</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731609483.755802.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731609484.0670936.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>161.96</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>161.9</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>-0.06000000000000227</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -4483,51 +4955,57 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731609490.740771</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731609492.9765491</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731609490.740771.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731609492.9765491.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>162.26</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>162.2</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>-0.06000000000000227</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -4535,51 +5013,57 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731609495.7094324</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731609496.168147</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731609495.7094324.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731609496.168147.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>162.92</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>162.98</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -4587,51 +5071,57 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731609498.690769</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731609499.2896206</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731609498.690769.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731609499.2896206.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>49.735</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>49.7</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>-0.03499999999999659</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -4639,51 +5129,57 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731609506.6857944</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731609507.019533</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731609506.6857944.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731609507.019533.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>49.76</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>49.735</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.02499999999999858</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -4691,51 +5187,57 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731609507.0364866</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731609509.4863899</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731609507.0364866.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731609509.4863899.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>49.735</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>49.68</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>-0.05499999999999972</v>
       </c>
-      <c r="L83" t="n">
+      <c r="N83" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -4743,51 +5245,57 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731609509.503345</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731609509.6546443</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731609509.503345.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731609509.6546443.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>49.68</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>49.655</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.02499999999999858</v>
       </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -4795,51 +5303,57 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731609509.7121372</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731609510.1360714</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731609509.7121372.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731609510.1360714.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>49.68</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>49.655</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>0.02499999999999858</v>
       </c>
-      <c r="L85" t="n">
+      <c r="N85" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -4847,51 +5361,57 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731609510.6877232</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731609510.9514363</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731609510.6877232.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731609510.9514363.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>49.67</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>49.67</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>0</v>
       </c>
-      <c r="L86" t="n">
+      <c r="N86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4899,51 +5419,57 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731609513.678338</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731609513.9285095</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731609513.678338.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731609513.9285095.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>49.795</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>49.765</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>-0.03000000000000114</v>
       </c>
-      <c r="L87" t="n">
+      <c r="N87" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -4951,51 +5477,57 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731609516.9865577</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731609517.1616497</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731609516.9865577.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731609517.1616497.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>1381</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>1379.6</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>1.400000000000091</v>
       </c>
-      <c r="L88" t="n">
+      <c r="N88" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -5003,51 +5535,57 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731609517.416338</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731609517.4964118</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731609517.416338.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731609517.4964118.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>1379.8</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>1380</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>-0.2000000000000455</v>
       </c>
-      <c r="L89" t="n">
+      <c r="N89" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -5055,51 +5593,57 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731609517.5534017</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731609517.7498271</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731609517.5534017.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731609517.7498271.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>1380.4</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>1377</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>3.400000000000091</v>
       </c>
-      <c r="L90" t="n">
+      <c r="N90" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -5107,51 +5651,57 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731609520.9343374</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731609521.362392</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731609520.9343374.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731609521.362392.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>1376.6</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>1377.2</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>-0.6000000000001364</v>
       </c>
-      <c r="L91" t="n">
+      <c r="N91" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -5159,51 +5709,57 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731609522.2391903</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731609523.582371</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731609522.2391903.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731609523.582371.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>1375.6</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>1377.6</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>-2</v>
       </c>
-      <c r="L92" t="n">
+      <c r="N92" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -5211,51 +5767,57 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731609524.6271667</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731609526.7324448</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731609524.6271667.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731609526.7324448.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>1378.2</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>1379.4</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>1.200000000000045</v>
       </c>
-      <c r="L93" t="n">
+      <c r="N93" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -5263,51 +5825,57 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731609527.8973138</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731609528.876873</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731609527.8973138.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731609528.876873.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>1380.4</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>1384</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>-3.599999999999909</v>
       </c>
-      <c r="L94" t="n">
+      <c r="N94" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -5315,51 +5883,57 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731609530.3663867</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731609531.0018182</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731609530.3663867.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731609531.0018182.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>1385.8</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>1387.2</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>1.400000000000091</v>
       </c>
-      <c r="L95" t="n">
+      <c r="N95" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -5367,51 +5941,57 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731609535.374463</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731609535.822397</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731609535.374463.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731609535.822397.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>58.87</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>58.9</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>0.03000000000000114</v>
       </c>
-      <c r="L96" t="n">
+      <c r="N96" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -5419,51 +5999,57 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731609539.7065916</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731609539.8497136</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731609539.7065916.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731609539.8497136.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>58.76</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>58.72</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>0.03999999999999915</v>
       </c>
-      <c r="L97" t="n">
+      <c r="N97" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -5471,51 +6057,57 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731609539.9209766</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731609541.6742887</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731609539.9209766.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731609541.6742887.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>58.8</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>58.87</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>-0.07000000000000028</v>
       </c>
-      <c r="L98" t="n">
+      <c r="N98" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -5523,51 +6115,57 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731609542.0949676</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731609542.1558049</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731609542.0949676.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731609542.1558049.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>58.81</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>58.8</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>-0.01000000000000512</v>
       </c>
-      <c r="L99" t="n">
+      <c r="N99" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -5575,51 +6173,57 @@
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731609543.7885294</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1731609544.1700518</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731609543.7885294.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731609544.1700518.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>58.67</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>58.63</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>0.03999999999999915</v>
       </c>
-      <c r="L100" t="n">
+      <c r="N100" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -5627,51 +6231,57 @@
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1731609544.3223388</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>1731609544.6163673</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731609544.3223388.png</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731609544.6163673.png</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>58.65</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>58.68</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>-0.03000000000000114</v>
       </c>
-      <c r="L101" t="n">
+      <c r="N101" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -5679,51 +6289,57 @@
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1731609546.2923613</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>1731609546.7596653</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731609546.2923613.png</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731609546.7596653.png</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>58.63</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>58.55</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>0.0800000000000054</v>
       </c>
-      <c r="L102" t="n">
+      <c r="N102" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -5731,51 +6347,57 @@
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>1731609548.6387036</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>1731609549.044907</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731609548.6387036.png</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731609549.044907.png</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
         <v>58.65</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>58.66</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>0.00999999999999801</v>
       </c>
-      <c r="L103" t="n">
+      <c r="N103" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -5783,51 +6405,57 @@
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>1731609551.0819674</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>1731609551.9912858</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731609551.0819674.png</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731609551.9912858.png</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
         <v>98.90000000000001</v>
       </c>
-      <c r="J104" t="n">
+      <c r="L104" t="n">
         <v>98.63</v>
       </c>
-      <c r="K104" t="n">
+      <c r="M104" t="n">
         <v>-0.2700000000000102</v>
       </c>
-      <c r="L104" t="n">
+      <c r="N104" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -5835,51 +6463,57 @@
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>1731609558.3272116</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>1731609559.4136124</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731609558.3272116.png</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731609559.4136124.png</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
         <v>98.48999999999999</v>
       </c>
-      <c r="J105" t="n">
+      <c r="L105" t="n">
         <v>98.8</v>
       </c>
-      <c r="K105" t="n">
+      <c r="M105" t="n">
         <v>-0.3100000000000023</v>
       </c>
-      <c r="L105" t="n">
+      <c r="N105" t="n">
         <v>-0.31</v>
       </c>
     </row>
@@ -5887,51 +6521,57 @@
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>1731609559.7025337</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>1731609560.0441542</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731609559.7025337.png</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731609560.0441542.png</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
         <v>98.7</v>
       </c>
-      <c r="J106" t="n">
+      <c r="L106" t="n">
         <v>98.79000000000001</v>
       </c>
-      <c r="K106" t="n">
+      <c r="M106" t="n">
         <v>0.09000000000000341</v>
       </c>
-      <c r="L106" t="n">
+      <c r="N106" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -5939,51 +6579,57 @@
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>1731609560.2915506</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>1731609560.3515065</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731609560.2915506.png</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731609560.3515065.png</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
         <v>98.79000000000001</v>
       </c>
-      <c r="J107" t="n">
+      <c r="L107" t="n">
         <v>98.78</v>
       </c>
-      <c r="K107" t="n">
+      <c r="M107" t="n">
         <v>-0.01000000000000512</v>
       </c>
-      <c r="L107" t="n">
+      <c r="N107" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -5991,51 +6637,57 @@
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="n">
+        <v>106</v>
+      </c>
+      <c r="D108" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>1731609560.4283247</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>1731609561.2690752</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731609560.4283247.png</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731609561.2690752.png</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
         <v>98.78</v>
       </c>
-      <c r="J108" t="n">
+      <c r="L108" t="n">
         <v>98.84999999999999</v>
       </c>
-      <c r="K108" t="n">
+      <c r="M108" t="n">
         <v>0.06999999999999318</v>
       </c>
-      <c r="L108" t="n">
+      <c r="N108" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -6043,51 +6695,57 @@
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" t="n">
+        <v>107</v>
+      </c>
+      <c r="D109" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>1731609562.188086</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>1731609562.4868877</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731609562.188086.png</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731609562.4868877.png</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
         <v>98.86</v>
       </c>
-      <c r="J109" t="n">
+      <c r="L109" t="n">
         <v>98.94</v>
       </c>
-      <c r="K109" t="n">
+      <c r="M109" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="L109" t="n">
+      <c r="N109" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -6095,51 +6753,57 @@
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110" t="n">
+        <v>108</v>
+      </c>
+      <c r="D110" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>1731609562.5953212</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>1731609563.2713382</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731609562.5953212.png</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731609563.2713382.png</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
         <v>98.87</v>
       </c>
-      <c r="J110" t="n">
+      <c r="L110" t="n">
         <v>98.92</v>
       </c>
-      <c r="K110" t="n">
+      <c r="M110" t="n">
         <v>0.04999999999999716</v>
       </c>
-      <c r="L110" t="n">
+      <c r="N110" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -6147,51 +6811,57 @@
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" t="n">
+        <v>109</v>
+      </c>
+      <c r="C111" t="n">
+        <v>109</v>
+      </c>
+      <c r="D111" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>1731609566.6305196</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>1731609567.1557026</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731609566.6305196.png</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731609567.1557026.png</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I111" t="n">
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
         <v>99.05</v>
       </c>
-      <c r="J111" t="n">
+      <c r="L111" t="n">
         <v>99.25</v>
       </c>
-      <c r="K111" t="n">
+      <c r="M111" t="n">
         <v>0.2000000000000028</v>
       </c>
-      <c r="L111" t="n">
+      <c r="N111" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -6199,51 +6869,57 @@
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" t="n">
+        <v>110</v>
+      </c>
+      <c r="C112" t="n">
+        <v>110</v>
+      </c>
+      <c r="D112" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>1731609567.6467361</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>1731609568.5056088</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731609567.6467361.png</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731609568.5056088.png</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I112" t="n">
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
         <v>99.16</v>
       </c>
-      <c r="J112" t="n">
+      <c r="L112" t="n">
         <v>99.61</v>
       </c>
-      <c r="K112" t="n">
+      <c r="M112" t="n">
         <v>0.4500000000000028</v>
       </c>
-      <c r="L112" t="n">
+      <c r="N112" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -6251,51 +6927,57 @@
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B113" t="n">
+        <v>111</v>
+      </c>
+      <c r="C113" t="n">
+        <v>111</v>
+      </c>
+      <c r="D113" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>1731609578.419677</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>1731609578.7363298</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>./test_images/SELG1731609578.419677.png</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>./test_images/SELG1731609578.7363298.png</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I113" t="n">
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
         <v>54.35</v>
       </c>
-      <c r="J113" t="n">
+      <c r="L113" t="n">
         <v>54.37</v>
       </c>
-      <c r="K113" t="n">
+      <c r="M113" t="n">
         <v>-0.01999999999999602</v>
       </c>
-      <c r="L113" t="n">
+      <c r="N113" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -6303,51 +6985,57 @@
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" t="n">
+        <v>112</v>
+      </c>
+      <c r="C114" t="n">
+        <v>112</v>
+      </c>
+      <c r="D114" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>1731609581.6576881</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>1731609583.2778966</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>./test_images/SELG1731609581.6576881.png</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>./test_images/SELG1731609583.2778966.png</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
         <v>54.53</v>
       </c>
-      <c r="J114" t="n">
+      <c r="L114" t="n">
         <v>54.79</v>
       </c>
-      <c r="K114" t="n">
+      <c r="M114" t="n">
         <v>0.259999999999998</v>
       </c>
-      <c r="L114" t="n">
+      <c r="N114" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -6355,51 +7043,57 @@
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" t="n">
+        <v>113</v>
+      </c>
+      <c r="C115" t="n">
+        <v>113</v>
+      </c>
+      <c r="D115" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>1731609593.5216098</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>1731609593.6472297</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731609593.5216098.png</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731609593.6472297.png</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I115" t="n">
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
         <v>152.12</v>
       </c>
-      <c r="J115" t="n">
+      <c r="L115" t="n">
         <v>152.14</v>
       </c>
-      <c r="K115" t="n">
+      <c r="M115" t="n">
         <v>-0.01999999999998181</v>
       </c>
-      <c r="L115" t="n">
+      <c r="N115" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -6407,51 +7101,57 @@
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" t="n">
+        <v>114</v>
+      </c>
+      <c r="C116" t="n">
+        <v>114</v>
+      </c>
+      <c r="D116" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>1731609593.8786716</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>1731609594.2914255</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731609593.8786716.png</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731609594.2914255.png</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I116" t="n">
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
         <v>152.1</v>
       </c>
-      <c r="J116" t="n">
+      <c r="L116" t="n">
         <v>152.12</v>
       </c>
-      <c r="K116" t="n">
+      <c r="M116" t="n">
         <v>-0.02000000000001023</v>
       </c>
-      <c r="L116" t="n">
+      <c r="N116" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -6459,51 +7159,57 @@
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" t="n">
+        <v>115</v>
+      </c>
+      <c r="C117" t="n">
+        <v>115</v>
+      </c>
+      <c r="D117" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>1731609596.3670802</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>1731609597.1540174</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731609596.3670802.png</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731609597.1540174.png</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I117" t="n">
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
         <v>152.46</v>
       </c>
-      <c r="J117" t="n">
+      <c r="L117" t="n">
         <v>153.12</v>
       </c>
-      <c r="K117" t="n">
+      <c r="M117" t="n">
         <v>0.6599999999999966</v>
       </c>
-      <c r="L117" t="n">
+      <c r="N117" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -6511,51 +7217,57 @@
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" t="n">
+        <v>116</v>
+      </c>
+      <c r="C118" t="n">
+        <v>116</v>
+      </c>
+      <c r="D118" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>1731609604.7772107</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>1731609605.575194</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731609604.7772107.png</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731609605.575194.png</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="I118" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I118" t="n">
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
         <v>19.785</v>
       </c>
-      <c r="J118" t="n">
+      <c r="L118" t="n">
         <v>19.758</v>
       </c>
-      <c r="K118" t="n">
+      <c r="M118" t="n">
         <v>0.02700000000000102</v>
       </c>
-      <c r="L118" t="n">
+      <c r="N118" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -6563,51 +7275,57 @@
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" t="n">
+        <v>117</v>
+      </c>
+      <c r="C119" t="n">
+        <v>117</v>
+      </c>
+      <c r="D119" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>1731609610.5291092</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>1731609611.8538775</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731609610.5291092.png</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="H119" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731609611.8538775.png</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
+      <c r="I119" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I119" t="n">
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
         <v>19.752</v>
       </c>
-      <c r="J119" t="n">
+      <c r="L119" t="n">
         <v>19.734</v>
       </c>
-      <c r="K119" t="n">
+      <c r="M119" t="n">
         <v>0.01799999999999713</v>
       </c>
-      <c r="L119" t="n">
+      <c r="N119" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -6615,51 +7333,57 @@
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" t="n">
+        <v>118</v>
+      </c>
+      <c r="C120" t="n">
+        <v>118</v>
+      </c>
+      <c r="D120" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>1731609612.9920926</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>1731609613.0487213</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731609612.9920926.png</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="H120" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731609613.0487213.png</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
+      <c r="I120" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I120" t="n">
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
         <v>19.8</v>
       </c>
-      <c r="J120" t="n">
+      <c r="L120" t="n">
         <v>19.788</v>
       </c>
-      <c r="K120" t="n">
+      <c r="M120" t="n">
         <v>-0.01200000000000045</v>
       </c>
-      <c r="L120" t="n">
+      <c r="N120" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -6667,51 +7391,57 @@
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" t="n">
+        <v>119</v>
+      </c>
+      <c r="C121" t="n">
+        <v>119</v>
+      </c>
+      <c r="D121" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>1731609613.1604047</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>1731609614.5284665</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731609613.1604047.png</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="H121" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731609614.5284665.png</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
+      <c r="I121" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I121" t="n">
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
         <v>19.785</v>
       </c>
-      <c r="J121" t="n">
+      <c r="L121" t="n">
         <v>19.798</v>
       </c>
-      <c r="K121" t="n">
-        <v>0.01300000000000168</v>
-      </c>
-      <c r="L121" t="n">
+      <c r="M121" t="n">
+        <v>0.01299999999999812</v>
+      </c>
+      <c r="N121" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -6719,51 +7449,57 @@
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B122" t="n">
+        <v>120</v>
+      </c>
+      <c r="C122" t="n">
+        <v>120</v>
+      </c>
+      <c r="D122" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>1731609616.9254687</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>1731609617.5545802</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731609616.9254687.png</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="H122" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731609617.5545802.png</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
+      <c r="I122" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I122" t="n">
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
         <v>19.853</v>
       </c>
-      <c r="J122" t="n">
+      <c r="L122" t="n">
         <v>19.868</v>
       </c>
-      <c r="K122" t="n">
+      <c r="M122" t="n">
         <v>0.01499999999999702</v>
       </c>
-      <c r="L122" t="n">
+      <c r="N122" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -6771,51 +7507,57 @@
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" t="n">
+        <v>121</v>
+      </c>
+      <c r="C123" t="n">
+        <v>121</v>
+      </c>
+      <c r="D123" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>1731609617.8086913</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>1731609618.0518787</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731609617.8086913.png</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="H123" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731609618.0518787.png</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
+      <c r="I123" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I123" t="n">
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
         <v>19.928</v>
       </c>
-      <c r="J123" t="n">
+      <c r="L123" t="n">
         <v>19.967</v>
       </c>
-      <c r="K123" t="n">
+      <c r="M123" t="n">
         <v>-0.03899999999999793</v>
       </c>
-      <c r="L123" t="n">
+      <c r="N123" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -6823,51 +7565,57 @@
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" t="n">
+        <v>122</v>
+      </c>
+      <c r="C124" t="n">
+        <v>122</v>
+      </c>
+      <c r="D124" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>1731609618.5123575</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>1731609619.2293644</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731609618.5123575.png</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="H124" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731609619.2293644.png</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
+      <c r="I124" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I124" t="n">
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
         <v>19.932</v>
       </c>
-      <c r="J124" t="n">
+      <c r="L124" t="n">
         <v>19.954</v>
       </c>
-      <c r="K124" t="n">
+      <c r="M124" t="n">
         <v>0.02200000000000202</v>
       </c>
-      <c r="L124" t="n">
+      <c r="N124" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -6875,51 +7623,57 @@
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" t="n">
+        <v>123</v>
+      </c>
+      <c r="C125" t="n">
+        <v>123</v>
+      </c>
+      <c r="D125" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>1731609626.8728988</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>1731609627.6532955</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731609626.8728988.png</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="H125" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731609627.6532955.png</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
+      <c r="I125" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I125" t="n">
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
         <v>675.35</v>
       </c>
-      <c r="J125" t="n">
+      <c r="L125" t="n">
         <v>675.6</v>
       </c>
-      <c r="K125" t="n">
+      <c r="M125" t="n">
         <v>0.25</v>
       </c>
-      <c r="L125" t="n">
+      <c r="N125" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -6927,51 +7681,57 @@
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B126" t="n">
+        <v>124</v>
+      </c>
+      <c r="C126" t="n">
+        <v>124</v>
+      </c>
+      <c r="D126" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>1731609627.6702776</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>1731609628.3904467</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731609627.6702776.png</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="H126" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731609628.3904467.png</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr">
+      <c r="I126" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I126" t="n">
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
         <v>675.6</v>
       </c>
-      <c r="J126" t="n">
+      <c r="L126" t="n">
         <v>675.3</v>
       </c>
-      <c r="K126" t="n">
+      <c r="M126" t="n">
         <v>0.3000000000000682</v>
       </c>
-      <c r="L126" t="n">
+      <c r="N126" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -6979,51 +7739,57 @@
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B127" t="n">
+        <v>125</v>
+      </c>
+      <c r="C127" t="n">
+        <v>125</v>
+      </c>
+      <c r="D127" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>1731609629.433038</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>1731609629.9905322</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731609629.433038.png</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="H127" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731609629.9905322.png</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr">
+      <c r="I127" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I127" t="n">
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
         <v>675.6</v>
       </c>
-      <c r="J127" t="n">
+      <c r="L127" t="n">
         <v>676.25</v>
       </c>
-      <c r="K127" t="n">
+      <c r="M127" t="n">
         <v>0.6499999999999773</v>
       </c>
-      <c r="L127" t="n">
+      <c r="N127" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -7031,51 +7797,57 @@
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B128" t="n">
+        <v>126</v>
+      </c>
+      <c r="C128" t="n">
+        <v>126</v>
+      </c>
+      <c r="D128" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>1731609632.5075133</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>1731609632.8803468</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731609632.5075133.png</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="H128" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731609632.8803468.png</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr">
+      <c r="I128" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I128" t="n">
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
         <v>674.7</v>
       </c>
-      <c r="J128" t="n">
+      <c r="L128" t="n">
         <v>674.35</v>
       </c>
-      <c r="K128" t="n">
+      <c r="M128" t="n">
         <v>0.3500000000000227</v>
       </c>
-      <c r="L128" t="n">
+      <c r="N128" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -7083,51 +7855,57 @@
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B129" t="n">
+        <v>127</v>
+      </c>
+      <c r="C129" t="n">
+        <v>127</v>
+      </c>
+      <c r="D129" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>1731609633.800108</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>1731609634.8636394</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731609633.800108.png</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="H129" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731609634.8636394.png</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr">
+      <c r="I129" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I129" t="n">
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
         <v>673.65</v>
       </c>
-      <c r="J129" t="n">
+      <c r="L129" t="n">
         <v>676.05</v>
       </c>
-      <c r="K129" t="n">
+      <c r="M129" t="n">
         <v>-2.399999999999977</v>
       </c>
-      <c r="L129" t="n">
+      <c r="N129" t="n">
         <v>-0.36</v>
       </c>
     </row>
@@ -7135,51 +7913,57 @@
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B130" t="n">
+        <v>128</v>
+      </c>
+      <c r="C130" t="n">
+        <v>128</v>
+      </c>
+      <c r="D130" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>1731609635.072335</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>1731609635.7643633</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731609635.072335.png</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="H130" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731609635.7643633.png</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr">
+      <c r="I130" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I130" t="n">
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
         <v>675.5</v>
       </c>
-      <c r="J130" t="n">
+      <c r="L130" t="n">
         <v>675.3</v>
       </c>
-      <c r="K130" t="n">
+      <c r="M130" t="n">
         <v>-0.2000000000000455</v>
       </c>
-      <c r="L130" t="n">
+      <c r="N130" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -7187,51 +7971,57 @@
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B131" t="n">
+        <v>129</v>
+      </c>
+      <c r="C131" t="n">
+        <v>129</v>
+      </c>
+      <c r="D131" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>1731609647.7921176</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>1731609648.157901</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731609647.7921176.png</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="H131" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731609648.157901.png</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr">
+      <c r="I131" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I131" t="n">
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
         <v>148.4</v>
       </c>
-      <c r="J131" t="n">
+      <c r="L131" t="n">
         <v>148.21</v>
       </c>
-      <c r="K131" t="n">
+      <c r="M131" t="n">
         <v>0.1899999999999977</v>
       </c>
-      <c r="L131" t="n">
+      <c r="N131" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -7239,51 +8029,57 @@
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B132" t="n">
+        <v>130</v>
+      </c>
+      <c r="C132" t="n">
+        <v>130</v>
+      </c>
+      <c r="D132" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>1731609652.103302</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>1731609652.1698835</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731609652.103302.png</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="H132" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731609652.1698835.png</t>
         </is>
       </c>
-      <c r="G132" t="inlineStr">
+      <c r="I132" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I132" t="n">
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
         <v>148.95</v>
       </c>
-      <c r="J132" t="n">
+      <c r="L132" t="n">
         <v>149.1</v>
       </c>
-      <c r="K132" t="n">
+      <c r="M132" t="n">
         <v>0.1500000000000057</v>
       </c>
-      <c r="L132" t="n">
+      <c r="N132" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -7291,51 +8087,57 @@
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B133" t="n">
+        <v>131</v>
+      </c>
+      <c r="C133" t="n">
+        <v>131</v>
+      </c>
+      <c r="D133" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>1731609652.3618104</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>1731609652.6011999</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731609652.3618104.png</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="H133" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731609652.6011999.png</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr">
+      <c r="I133" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I133" t="n">
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
         <v>148.96</v>
       </c>
-      <c r="J133" t="n">
+      <c r="L133" t="n">
         <v>148.85</v>
       </c>
-      <c r="K133" t="n">
+      <c r="M133" t="n">
         <v>-0.1100000000000136</v>
       </c>
-      <c r="L133" t="n">
+      <c r="N133" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -7397,16 +8199,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4399999999999977</v>
+        <v>0.4199999999999591</v>
       </c>
       <c r="C2" t="n">
         <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02749999999999986</v>
+        <v>0.02624999999999744</v>
       </c>
       <c r="E2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="F2" t="n">
         <v>0.01</v>
@@ -7551,13 +8353,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.04400000000000048</v>
+        <v>0.04399999999999693</v>
       </c>
       <c r="C9" t="n">
         <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>0.006285714285714354</v>
+        <v>0.006285714285713847</v>
       </c>
       <c r="E9" t="n">
         <v>0.23</v>
